--- a/biology/Botanique/Abies_fabri/Abies_fabri.xlsx
+++ b/biology/Botanique/Abies_fabri/Abies_fabri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abies fabri est une espèce de conifères de la famille des Pinacées[1]. Il est originaire de Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abies fabri est une espèce de conifères de la famille des Pinacées. Il est originaire de Chine.
 </t>
         </is>
       </c>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-Abies fabri peut atteindre 40 mètres de hauteur[2] et avoir un tronc d'un diamètre d'1 mètre.
-Caractères botaniques
-Abies fabri possède un port conique.
-Son écorce est gris foncé et pelante. Les rameaux sont d'abord jaune clair avant de devenir gris-brun et sont plus ou moins pubescents.
-Les bourgeons sont ovoïdes et résineux.
-Les aiguilles mesurent de 1,5 à 3 cm de long pour 2 à 3 mm de large. Elles sont vertes, brillantes sur le dessus. Les marges des aiguilles sont vert foncé et révolutées. L'apex est arrondi voir échancré[3]. La nervure centrale des aiguilles est proéminente.
-Les cônes mâles sont violacés ou pourpres, mesurant de 2 à 3,5 cm de long et sortent leurs pollens en mai.
-Les cônes femelles sont glauques, cylindriques, mesurant de 6 à 11 cm de long pour 3 à 4,5 cm de large. Ils sont soutenus par de courts pédoncules. Leurs écailles sont trapézoïdales et mesurent de 1,4 à 2 cm de longueur avec des bractées pointues[4], réfléchies et sortant à peine des écailles. Les graines sont elliptiques, possédant une aile de couleur brun-noir et l'ensemble mesure entre 1,3 et 1,6 cm.
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abies fabri peut atteindre 40 mètres de hauteur et avoir un tronc d'un diamètre d'1 mètre.
 </t>
         </is>
       </c>
@@ -547,15 +557,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Abies fabri pousse naturellement à partir de 1 500 mètres jusqu'à 4 000 mètres d'altitude en Chine et plus précisément dans l'Himalaya de l'ouest du Sichuan.
-Exigences
-Sa zone de rusticité correspond à la zone 7 donc, il sait très facilement résister à des températures de -12,2 à -17,8 °C. Tous les sols lui conviennent.
+          <t>Caractères botaniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abies fabri possède un port conique.
+Son écorce est gris foncé et pelante. Les rameaux sont d'abord jaune clair avant de devenir gris-brun et sont plus ou moins pubescents.
+Les bourgeons sont ovoïdes et résineux.
+Les aiguilles mesurent de 1,5 à 3 cm de long pour 2 à 3 mm de large. Elles sont vertes, brillantes sur le dessus. Les marges des aiguilles sont vert foncé et révolutées. L'apex est arrondi voir échancré. La nervure centrale des aiguilles est proéminente.
+Les cônes mâles sont violacés ou pourpres, mesurant de 2 à 3,5 cm de long et sortent leurs pollens en mai.
+Les cônes femelles sont glauques, cylindriques, mesurant de 6 à 11 cm de long pour 3 à 4,5 cm de large. Ils sont soutenus par de courts pédoncules. Leurs écailles sont trapézoïdales et mesurent de 1,4 à 2 cm de longueur avec des bractées pointues, réfléchies et sortant à peine des écailles. Les graines sont elliptiques, possédant une aile de couleur brun-noir et l'ensemble mesure entre 1,3 et 1,6 cm.
 </t>
         </is>
       </c>
@@ -581,10 +599,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abies fabri pousse naturellement à partir de 1 500 mètres jusqu'à 4 000 mètres d'altitude en Chine et plus précisément dans l'Himalaya de l'ouest du Sichuan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abies_fabri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abies_fabri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exigences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa zone de rusticité correspond à la zone 7 donc, il sait très facilement résister à des températures de -12,2 à -17,8 °C. Tous les sols lui conviennent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abies_fabri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abies_fabri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très utilisé dans les domaines de la construction, de la production de résine ainsi que dans la production de papier.
 </t>
